--- a/biology/Botanique/Litsea/Litsea.xlsx
+++ b/biology/Botanique/Litsea/Litsea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Litsées (n. fém.) ou Litsea forment un genre d'arbres et d'arbustes de la famille des Lauraceae comptant plus de 200 espèces en Amérique, Asie, Océanie. La Chine compte 70 espèces de Litsea.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arbres à feuilles persistantes, alternes, rarement opposées.
-Fleurs unisexuées[2].</t>
+Fleurs unisexuées.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Litsea accedens
@@ -620,7 +636,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces de Litsées comme Litsea citrata fournissent des huiles essentielles.
 </t>
